--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Descripciones_glosario.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/1_Producto_cultivos_general/Descripciones_glosario.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\1_Producto_cultivos_general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA5CA5-0011-4A00-A201-74331C6B4624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE92E89D-925F-4F0E-BCFD-C1D013F5D3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B6EE1F-1C95-410B-BA24-8D89E37504E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A4B6EE1F-1C95-410B-BA24-8D89E37504E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción_permanentes" sheetId="2" r:id="rId1"/>
-    <sheet name="Descripción_anuales" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Descripción_anuales" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Tubérculos</t>
   </si>
@@ -901,6 +902,42 @@
   </si>
   <si>
     <t>Uva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los cereales son plantas de la familia de las poáceas cultivadas por su grano. </t>
+  </si>
+  <si>
+    <t>En  Chile los principales cereales son trigo (Triticum spp), el arroz (Oryza sativa), el maíz (Zea mays), la cebada (Hordeum vulgare), la avena (Avena sativa), el centeno (Secale cereale) y el triticale (xTriticosecale).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un tubérculo es un tallo subterráneo​ modificado y engrosado donde se acumulan los nutrientes de reserva para la planta. </t>
+  </si>
+  <si>
+    <t>El principal cultivo en esta categoría en Chile corresponde a la papa (Solanum tuberosum).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las hortalizas son un conjunto de plantas cultivadas generalmente en huertos o regadíos. </t>
+  </si>
+  <si>
+    <t>Esta categoría incluye  vegetales como acelga (Beta vulgaris var. cicla), ají (Capsicum annuum), ajo (Allium sativum), alcachofa (Cynara scolymus), apio (Apium graveolens), arveja (Pisum sativum), betarraga (Beta vulgaris), brócoli (Brassica oleracea var. italica), cebolla (Allium cepa), choclo (Zea mays), coliflor (Brassica oleracea var. botrytis),  espárrago (Asparagus officinalis), espinaca (Spinacia oleracea), haba (Vicia faba), lechuga (Lactuca sativa), melón (Cucumis melo), orégano (Origanum vulgare), pepino (Cucumis sativus), pimiento (Capsicum annuum), poroto granado (Phaseolus vulgaris), poroto verde (Phaseolus vulgaris), repollo (Brassica oleracea var. capitata), sandía (Citrullus lanatus), tomate fresco (Solanum lycopersicum), zanahoria (Daucus carota), zapallo( Cucurbita pepo), zapallo de guarda (Cucurbita maxima), frutilla (Fragaria) y otros hortalizas</t>
+  </si>
+  <si>
+    <t>Las legumbres son un tipo de leguminosas que se cosechan únicamente para obtener la semilla seca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Incluyen garbanzos (Cicer arietinum), lentejas (Lens culinaris) y otras legumbres.</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Cultivo Perenne</t>
+  </si>
+  <si>
+    <t>Cultivos Anuales</t>
+  </si>
+  <si>
+    <t>Categoría</t>
   </si>
 </sst>
 </file>
@@ -944,10 +981,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,7 +1001,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -995,23 +1038,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3F911E3-732B-48F9-9F73-8F3125EC80E7}" name="Descripción_frutales" displayName="Descripción_frutales" ref="B3:D11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3F911E3-732B-48F9-9F73-8F3125EC80E7}" name="Descripción_frutales" displayName="Descripción_frutales" ref="B3:D11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B3:D11" xr:uid="{AB00EC7C-868D-4074-BE5B-5B1570E6BA95}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9DFCD300-E7ED-491D-9D16-861CF2851570}" name="Categoría cultivo anual" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E55CA64E-FC53-4831-BF41-FDBDB656B033}" name="Descripción" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9D7E6B1C-A1D4-4E65-9DF9-399C0C33E9F5}" name="Especies" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9DFCD300-E7ED-491D-9D16-861CF2851570}" name="Categoría cultivo anual" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E55CA64E-FC53-4831-BF41-FDBDB656B033}" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9D7E6B1C-A1D4-4E65-9DF9-399C0C33E9F5}" name="Especies" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD6E84BB-6B4F-4C74-B0AC-913FB791654E}" name="Descripción_anuales" displayName="Descripción_anuales" ref="B3:C8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B3:C8" xr:uid="{AB00EC7C-868D-4074-BE5B-5B1570E6BA95}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0FEDF0B9-DD47-4AC3-BBB5-DB0503681D06}" name="Glosario" displayName="Glosario" ref="A3:D16" totalsRowShown="0">
+  <autoFilter ref="A3:D16" xr:uid="{CC30EFEA-03CB-4391-815B-81A8EE73B685}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2CE6C698-93FC-4AE6-B2EC-CFEAF18E8D22}" name="Tipo"/>
+    <tableColumn id="2" xr3:uid="{66696531-5982-4A3A-9A22-0F76052D334F}" name="Categoría"/>
+    <tableColumn id="3" xr3:uid="{C82594C1-CD14-4B3F-A113-7B47970B8973}" name="Descripción"/>
+    <tableColumn id="4" xr3:uid="{EF9961F3-B8B8-4741-95DE-1E490B317FD1}" name="Especies"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD6E84BB-6B4F-4C74-B0AC-913FB791654E}" name="Descripción_anuales" displayName="Descripción_anuales" ref="C3:D8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="C3:D8" xr:uid="{AB00EC7C-868D-4074-BE5B-5B1570E6BA95}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FA62012D-E784-4E91-AE2A-5001346EC17A}" name="Categoría cultivo anual" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{23A2BFD1-81C9-4A55-A2FB-9E2FBD206B13}" name="Descripción" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FA62012D-E784-4E91-AE2A-5001346EC17A}" name="Categoría cultivo anual" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{23A2BFD1-81C9-4A55-A2FB-9E2FBD206B13}" name="Descripción" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1314,20 +1370,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B31004-A92D-4CD5-BB3F-0BF2CAF4B275}">
-  <dimension ref="B3:D11"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="54.90625" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" customWidth="1"/>
+    <col min="4" max="4" width="83.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1338,87 +1394,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1430,64 +1495,275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD014229-B17B-437E-93BB-8BCBB2269DC7}">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B25F5CC-13E3-4071-8B4E-97BBEEC1EB02}">
-  <dimension ref="B3:C8"/>
+  <dimension ref="C3:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="81.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="81.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="3:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="3:4" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="3:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
